--- a/biology/Zoologie/Anolis_capito/Anolis_capito.xlsx
+++ b/biology/Zoologie/Anolis_capito/Anolis_capito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis capito est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis capito est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica, au Nicaragua, au Honduras, au Belize, au Guatemala et au Mexique au Yucatán et au Tabasco. Sa présence est incertaine au Salvador[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica, au Nicaragua, au Honduras, au Belize, au Guatemala et au Mexique au Yucatán et au Tabasco. Sa présence est incertaine au Salvador.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1863 : Über einige neue Arten der Saurier-Gattung Anolis. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1863, p. 135-149 (texte intégral).</t>
         </is>
